--- a/Sistem Pakar Diagnosa Malaria.xlsx
+++ b/Sistem Pakar Diagnosa Malaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="101">
   <si>
     <t>Demam</t>
   </si>
@@ -181,9 +181,6 @@
     <t>KELUHAN DIRASAKAN TIAP SORE</t>
   </si>
   <si>
-    <t>SERING KAMBUH WALAUPUN SETELAH DINYATAKAN SUDAH SEMBUH</t>
-  </si>
-  <si>
     <t xml:space="preserve">DEMAM SETIAP 3 HARI </t>
   </si>
   <si>
@@ -244,12 +241,6 @@
     <t>MERASA LEMAH SEBELUM SUHU TUBUH NORMAL</t>
   </si>
   <si>
-    <t>TRIAS MALARIA</t>
-  </si>
-  <si>
-    <t>MERASAKAN PERASAAN SANGAT DINGIN ATAU SUHU TUBUH DIBAWAH 36 DERAJAT</t>
-  </si>
-  <si>
     <t>MERASAKAN KEPANASAN ATAU SUHU TUBUH PANAS</t>
   </si>
   <si>
@@ -274,9 +265,6 @@
     <t>MALARIA TROPIKA</t>
   </si>
   <si>
-    <t>MALARIA || TRIAS MALARIA</t>
-  </si>
-  <si>
     <t>KELUHAN DIRASAKAN TIAP MALAM</t>
   </si>
   <si>
@@ -317,6 +305,18 @@
   </si>
   <si>
     <t>SAKIT PERUT HINGGA DIARE</t>
+  </si>
+  <si>
+    <t>DEMAM TIAP 3 HARI</t>
+  </si>
+  <si>
+    <t>SERING KAMBUH</t>
+  </si>
+  <si>
+    <t>MERASAKAN PERASAAN SANGAT DINGIN</t>
+  </si>
+  <si>
+    <t>RULES</t>
   </si>
 </sst>
 </file>
@@ -344,7 +344,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,6 +360,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -511,6 +517,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -521,30 +557,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -848,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:Y93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,524 +879,725 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="24"/>
+      <c r="M1" s="15"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="U2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="B3" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="V3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="V4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="V5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="V6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="V7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="V8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="V9" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
+      <c r="B10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="V10" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
+      <c r="B11" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="V11" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
+      <c r="B12" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="V12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="B13" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="V13" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
+      <c r="B14" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="V14" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="V15" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="U16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="U20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="V21" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="V22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
+        <v>92</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="V23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
+      <c r="F24" s="13">
+        <v>15</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13">
+        <v>16</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13">
+        <v>14</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13">
+        <v>15</v>
+      </c>
+      <c r="M24" s="13"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="V24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-    </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="V25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="V26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1392,30 +1605,17 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="T27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1423,384 +1623,490 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="U28" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="U29" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="U30" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="T31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="M33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="T34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="U35" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="U36" s="1" t="s">
+      <c r="O36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P36" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="U37" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="U38" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="T39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="T42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="U43" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="U44" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="T45" s="1" t="s">
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="U45" s="1" t="s">
+      <c r="B54" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="M46" s="4"/>
-      <c r="N46" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="M47" s="4"/>
-      <c r="N47" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="M48" s="4" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N48" s="4" t="s">
+      <c r="B64" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="T48" s="1" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U48" s="1" t="s">
+      <c r="B75" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="13:21" x14ac:dyDescent="0.25">
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="U49" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="13:21" x14ac:dyDescent="0.25">
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="U50" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="13:21" x14ac:dyDescent="0.25">
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="U51" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="13:21" x14ac:dyDescent="0.25">
-      <c r="T52" s="1" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U52" s="1" t="s">
-        <v>91</v>
+      <c r="B93" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="115">
+  <mergeCells count="120">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="O1:Y1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -1820,102 +2126,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistem Pakar Diagnosa Malaria.xlsx
+++ b/Sistem Pakar Diagnosa Malaria.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="102">
   <si>
     <t>Demam</t>
   </si>
@@ -316,14 +317,17 @@
     <t>MERASAKAN PERASAAN SANGAT DINGIN</t>
   </si>
   <si>
-    <t>RULES</t>
+    <t>TRIAS MALARIA</t>
+  </si>
+  <si>
+    <t>RULES YANG DIPAKAI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +344,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -487,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -517,6 +532,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -863,7 +881,7 @@
   <dimension ref="A1:Y93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:M13"/>
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,61 +901,61 @@
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="15"/>
+      <c r="M1" s="18"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
+      <c r="O1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="10"/>
       <c r="O2" s="1" t="s">
         <v>40</v>
@@ -958,20 +976,20 @@
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
       <c r="N3" s="10"/>
       <c r="P3" s="1" t="s">
         <v>97</v>
@@ -986,20 +1004,20 @@
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
       <c r="N4" s="10"/>
       <c r="P4" s="1" t="s">
         <v>42</v>
@@ -1014,20 +1032,20 @@
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
       <c r="N5" s="10"/>
       <c r="P5" s="1" t="s">
         <v>53</v>
@@ -1042,20 +1060,20 @@
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
       <c r="N6" s="10"/>
       <c r="P6" s="1" t="s">
         <v>43</v>
@@ -1070,20 +1088,20 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
       <c r="N7" s="10"/>
       <c r="P7" s="1" t="s">
         <v>47</v>
@@ -1098,20 +1116,20 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="10"/>
       <c r="P8" s="1" t="s">
         <v>57</v>
@@ -1126,20 +1144,20 @@
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
       <c r="N9" s="4"/>
       <c r="P9" s="4" t="s">
         <v>58</v>
@@ -1154,20 +1172,20 @@
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
       <c r="N10" s="4"/>
       <c r="P10" s="4" t="s">
         <v>60</v>
@@ -1182,20 +1200,20 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
       <c r="N11" s="4"/>
       <c r="P11" s="4" t="s">
         <v>61</v>
@@ -1210,20 +1228,20 @@
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
       <c r="N12" s="4"/>
       <c r="P12" s="1" t="s">
         <v>54</v>
@@ -1238,20 +1256,20 @@
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="4"/>
       <c r="P13" s="1" t="s">
         <v>98</v>
@@ -1266,20 +1284,20 @@
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
       <c r="N14" s="4"/>
       <c r="P14" s="4" t="s">
         <v>95</v>
@@ -1294,20 +1312,20 @@
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
       <c r="N15" s="9"/>
       <c r="P15" s="4" t="s">
         <v>96</v>
@@ -1322,20 +1340,20 @@
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
       <c r="N16" s="4"/>
       <c r="P16" s="4" t="s">
         <v>64</v>
@@ -1353,20 +1371,20 @@
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
       <c r="N17" s="4"/>
       <c r="O17" s="1" t="s">
         <v>45</v>
@@ -1381,20 +1399,20 @@
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
       <c r="N18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -1403,20 +1421,20 @@
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
       <c r="N19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -1425,20 +1443,20 @@
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
       <c r="N20" s="4"/>
       <c r="O20" s="1" t="s">
         <v>40</v>
@@ -1459,20 +1477,20 @@
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
       <c r="N21" s="4"/>
       <c r="P21" s="1" t="s">
         <v>78</v>
@@ -1487,20 +1505,20 @@
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
       <c r="N22" s="4"/>
       <c r="P22" s="1" t="s">
         <v>79</v>
@@ -1515,20 +1533,20 @@
       <c r="A23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
       <c r="N23" s="4"/>
       <c r="P23" s="1" t="s">
         <v>42</v>
@@ -1545,22 +1563,22 @@
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="13">
+      <c r="F24" s="16">
         <v>15</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13">
+      <c r="G24" s="16"/>
+      <c r="H24" s="16">
         <v>16</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13">
+      <c r="I24" s="16"/>
+      <c r="J24" s="16">
         <v>14</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13">
+      <c r="K24" s="16"/>
+      <c r="L24" s="16">
         <v>15</v>
       </c>
-      <c r="M24" s="13"/>
+      <c r="M24" s="16"/>
       <c r="N24" s="4"/>
       <c r="P24" s="1" t="s">
         <v>53</v>
@@ -2129,4 +2147,266 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M17" s="15"/>
+      <c r="N17" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>